--- a/DATA_goal/Junction_Flooding_317.xlsx
+++ b/DATA_goal/Junction_Flooding_317.xlsx
@@ -447,12 +447,12 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -465,7 +465,7 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -473,7 +473,7 @@
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44998.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>24.62</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.44</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.99</v>
+        <v>129.95</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.49</v>
+        <v>24.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44998.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.81</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.55</v>
+        <v>35.45</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.81</v>
+        <v>28.09</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.72</v>
+        <v>47.23</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.21</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.8</v>
+        <v>18.01</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.35</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.72</v>
+        <v>187.24</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.57</v>
+        <v>35.72</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.36</v>
+        <v>23.59</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.38</v>
+        <v>23.76</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.32</v>
+        <v>43.18</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44998.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.63</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.07</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.86</v>
+        <v>38.64</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.11</v>
+        <v>31.11</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.41</v>
+        <v>54.11</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>204.42</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>38.91</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>2.15</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>2.65</v>
+        <v>26.48</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.14</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.9</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.28</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.93</v>
+        <v>49.27</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44998.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.85</v>
+        <v>38.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_317.xlsx
+++ b/DATA_goal/Junction_Flooding_317.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44998.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>7.644</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>3.425</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>24.615</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>18.068</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>8.586</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>25.443</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>5.416</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>7.792</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>10.589</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>2.697</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>12.231</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>8.247999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>129.948</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>24.892</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.193</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.063</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>6.887</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>7.883</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>10.309</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.695</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>22.828</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>4.294</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
         <v>16.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.81</v>
+        <v>11.813</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.75</v>
@@ -771,34 +771,34 @@
         <v>35.45</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.09</v>
+        <v>28.091</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.57</v>
+        <v>12.573</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.23</v>
+        <v>47.229</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.52</v>
+        <v>8.523999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.39</v>
+        <v>12.392</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.18</v>
+        <v>14.181</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.21</v>
+        <v>15.212</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.96</v>
+        <v>3.955</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>18.01</v>
@@ -807,55 +807,55 @@
         <v>11.12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.347</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.968</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>187.24</v>
+        <v>187.239</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>35.72</v>
+        <v>35.717</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.59</v>
+        <v>23.592</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.35</v>
+        <v>12.354</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>2.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.76</v>
+        <v>23.756</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.42</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.02</v>
+        <v>11.015</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>14.91</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.18</v>
+        <v>43.178</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.46</v>
+        <v>6.459</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44998.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.63</v>
+        <v>17.626</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.07</v>
+        <v>13.068</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.345</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.64</v>
+        <v>38.636</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.11</v>
+        <v>31.111</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.79</v>
+        <v>13.791</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>54.11</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.44</v>
+        <v>9.444000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.83</v>
+        <v>13.833</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.48</v>
+        <v>15.484</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.54</v>
+        <v>16.541</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.35</v>
+        <v>4.346</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.69</v>
+        <v>19.694</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.91</v>
+        <v>11.906</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.954</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.833</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.42</v>
+        <v>204.415</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.91</v>
+        <v>38.907</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.95</v>
+        <v>25.946</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.6</v>
+        <v>13.601</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.15</v>
+        <v>2.152</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.48</v>
+        <v>26.485</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.14</v>
+        <v>10.143</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.9</v>
+        <v>11.898</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.28</v>
+        <v>16.276</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.27</v>
+        <v>49.274</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.13</v>
+        <v>7.131</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.05</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44998.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>45.97</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>60.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>244.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>46.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.02</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.01</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_317.xlsx
+++ b/DATA_goal/Junction_Flooding_317.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44998.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.72</v>
+        <v>3.721</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.68</v>
+        <v>2.682</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.673</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.34</v>
+        <v>8.343</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.26</v>
+        <v>6.265</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.87</v>
+        <v>2.874</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.63</v>
+        <v>17.633</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.65</v>
+        <v>4.654</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.99</v>
+        <v>1.994</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.66</v>
+        <v>2.656</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.34</v>
+        <v>3.337</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.66</v>
+        <v>3.659</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.876</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.01</v>
+        <v>3.008</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.25</v>
+        <v>4.252</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.79</v>
+        <v>2.791</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.639</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.52</v>
+        <v>38.523</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.75</v>
+        <v>8.752000000000001</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.69</v>
+        <v>5.692</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.88</v>
+        <v>2.881</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.645</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.08</v>
+        <v>8.077999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.45</v>
+        <v>2.452</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.31</v>
+        <v>2.306</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.5</v>
+        <v>3.505</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
+        <v>16.536</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.474</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44998.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>45.97</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>60.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="O6" s="4" t="n">
         <v>16.54</v>
       </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>3.47</v>
+      <c r="P6" s="4" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>244.46</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>30.01</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_317.xlsx
+++ b/DATA_goal/Junction_Flooding_317.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44998.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.721</v>
+        <v>3.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.682</v>
+        <v>2.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.673</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.343</v>
+        <v>8.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.265</v>
+        <v>6.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.874</v>
+        <v>2.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.633</v>
+        <v>17.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.654</v>
+        <v>4.65</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.994</v>
+        <v>1.99</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.656</v>
+        <v>2.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.337</v>
+        <v>3.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.659</v>
+        <v>3.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.876</v>
+        <v>0.88</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.008</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.252</v>
+        <v>4.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.791</v>
+        <v>2.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.639</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.523</v>
+        <v>38.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.752000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.776</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.692</v>
+        <v>5.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.881</v>
+        <v>2.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.645</v>
+        <v>0.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.077999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.452</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.306</v>
+        <v>2.31</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.505</v>
+        <v>3.5</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.536</v>
+        <v>16.54</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.434</v>
+        <v>1.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.474</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44998.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>45.97</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>60.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>244.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>46.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.02</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.01</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.09</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>
